--- a/実績置き場/01_石井麻/SQL学習.xlsx
+++ b/実績置き場/01_石井麻/SQL学習.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="3" r:id="rId2"/>
     <sheet name="2" sheetId="2" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="6" r:id="rId6"/>
+    <sheet name="6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="190">
   <si>
     <t>SELECT population FROM world</t>
   </si>
@@ -371,6 +374,356 @@
   </si>
   <si>
     <t>WHERE yr = 1950;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT yr, subject</t>
+  </si>
+  <si>
+    <t>WHERE winner = 'Albert Einstein';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT winner</t>
+  </si>
+  <si>
+    <t>WHERE subject = 'Peace'</t>
+  </si>
+  <si>
+    <t>AND yr &gt;= 2000;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT *</t>
+  </si>
+  <si>
+    <t>WHERE yr BETWEEN 1980 AND 1989</t>
+  </si>
+  <si>
+    <t>AND subject = 'Literature';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT * FROM nobel</t>
+  </si>
+  <si>
+    <t>WHERE winner IN ('Theodore Roosevelt', 'Woodrow Wilson', 'Jimmy Carter', 'Barack Obama')</t>
+  </si>
+  <si>
+    <t>3-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT winner FROM nobel</t>
+  </si>
+  <si>
+    <t>3-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE (yr = '1980' AND subject = 'physics')</t>
+  </si>
+  <si>
+    <t>3-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE yr = '1980'</t>
+  </si>
+  <si>
+    <t>3-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE (yr &lt; '1910' AND subject = 'Medicine')</t>
+  </si>
+  <si>
+    <t>OR (yr &gt;= '2004' AND subject = 'Literature');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR (yr = '1984' AND subject = 'chemistry');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND subject NOT IN ('chemistry', 'Medicine');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE winner = 'PETER GRÜNBERG';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE winner = 'EUGENE O''NEILL';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE winner LIKE 'John%';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT winner, yr, subject FROM nobel</t>
+  </si>
+  <si>
+    <t>WHERE winner LIKE 'Sir%'</t>
+  </si>
+  <si>
+    <t>ORDER BY yr DESC, winner ASC</t>
+  </si>
+  <si>
+    <t>3-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT winner, subject</t>
+  </si>
+  <si>
+    <t>WHERE yr= '1984'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORDER BY subject IN ('Physics','Chemistry'), subject,winner;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE continent = 'Europe'</t>
+  </si>
+  <si>
+    <t>AND gdp/population &gt; (SELECT gdp/population FROM world WHERE name='United Kingdom');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE population &gt; (SELECT population FROM world WHERE name='Russia');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT name, continent FROM world</t>
+  </si>
+  <si>
+    <t>WHERE continent IN ('South America', 'Oceania')</t>
+  </si>
+  <si>
+    <t>ORDER BY name;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE population &gt; (SELECT population FROM world WHERE name='Canada')</t>
+  </si>
+  <si>
+    <t>AND population &lt; (SELECT population FROM world WHERE name='Poland');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT name, CONCAT(ROUND(100*population/</t>
+  </si>
+  <si>
+    <t>(SELECT population FROM world WHERE name = 'Germany')), '%')</t>
+  </si>
+  <si>
+    <t>WHERE continent = 'Europe';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE gdp &gt; (SELECT MAX(gdp) FROM world WHERE continent = 'Europe');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT continent, name, area FROM world x</t>
+  </si>
+  <si>
+    <t>WHERE area &gt;= ALL</t>
+  </si>
+  <si>
+    <t>(SELECT area FROM world y WHERE y.continent=x.continent AND population&gt;0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT continent, min(name) name</t>
+  </si>
+  <si>
+    <t>group by continent;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT SUM(population)</t>
+  </si>
+  <si>
+    <t>FROM world;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT DISTINCT continent</t>
+  </si>
+  <si>
+    <t>FROM world;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT SUM(gdp)</t>
+  </si>
+  <si>
+    <t>WHERE continent = 'Africa';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*)</t>
+  </si>
+  <si>
+    <t>WHERE area &gt;= 1000000;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE name IN ('Estonia', 'Latvia', 'Lithuania');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT continent, COUNT(continent)</t>
+  </si>
+  <si>
+    <t>GROUP BY continent;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE population &gt;= 10000000</t>
+  </si>
+  <si>
+    <t>5-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT continent FROM world</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group by continent having sum(population) &gt;= 100000000;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT matchid, player FROM goal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JOIN eteam ON</t>
+  </si>
+  <si>
+    <t>teamid = id</t>
+  </si>
+  <si>
+    <t>WHERE teamid = 'GER';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT id,stadium,team1,team2</t>
+  </si>
+  <si>
+    <t>FROM game</t>
+  </si>
+  <si>
+    <t>WHERE id = '1012';</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1338,10 +1691,304 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1352,42 +1999,407 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/実績置き場/01_石井麻/SQL学習.xlsx
+++ b/実績置き場/01_石井麻/SQL学習.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="4" sheetId="5" r:id="rId5"/>
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
+    <sheet name="7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="264">
   <si>
     <t>SELECT population FROM world</t>
   </si>
@@ -724,6 +725,272 @@
   </si>
   <si>
     <t>WHERE id = '1012';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT player, teamid, stadium, mdate</t>
+  </si>
+  <si>
+    <t>FROM game JOIN goal ON (id = matchid)</t>
+  </si>
+  <si>
+    <t>WHERE teamid = 'GER'</t>
+  </si>
+  <si>
+    <t>WHERE teamid = 'GER';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT team1, team2, player</t>
+  </si>
+  <si>
+    <t>WHERE player LIKE 'Mario%';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT player, teamid, coach, gtime</t>
+  </si>
+  <si>
+    <t>FROM goal JOIN eteam on (teamid = id)</t>
+  </si>
+  <si>
+    <t>WHERE gtime &lt;= 10;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT mdate, teamname</t>
+  </si>
+  <si>
+    <t>FROM game JOIN eteam ON (team1 = eteam.id)</t>
+  </si>
+  <si>
+    <t>WHERE coach = 'Fernando Santos';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT player</t>
+  </si>
+  <si>
+    <t>FROM goal JOIN game on (matchid = id)</t>
+  </si>
+  <si>
+    <t>WHERE stadium = 'National Stadium, Warsaw';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT DISTINCT player</t>
+  </si>
+  <si>
+    <t>FROM game JOIN goal ON (matchid = id)</t>
+  </si>
+  <si>
+    <t>WHERE (team1='GER' OR team2='GER')</t>
+  </si>
+  <si>
+    <t>AND teamid &lt;&gt; 'GER';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT teamname, COUNT(teamname)</t>
+  </si>
+  <si>
+    <t>FROM eteam JOIN goal ON (id=teamid)</t>
+  </si>
+  <si>
+    <t>GROUP BY teamname;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT stadium, COUNT(stadium)</t>
+  </si>
+  <si>
+    <t>GROUP BY stadium;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT matchid, mdate, COUNT(matchid)</t>
+  </si>
+  <si>
+    <t>FROM goal JOIN game ON (matchid = id)</t>
+  </si>
+  <si>
+    <t>WHERE (team1 = 'POL' OR team2 = 'POL')</t>
+  </si>
+  <si>
+    <t>6-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT matchid, mdate, COUNT(teamid)</t>
+  </si>
+  <si>
+    <t>GROUP BY matchid, mdate, teamid;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT id, title FROM movie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE yr = '1962';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT yr FROM movie</t>
+  </si>
+  <si>
+    <t>WHERE title = 'Citizen Kane';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT id, title, yr</t>
+  </si>
+  <si>
+    <t>FROM movie</t>
+  </si>
+  <si>
+    <t>WHERE title LIKE 'Star Trek%'</t>
+  </si>
+  <si>
+    <t>ORDER BY yr;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT id FROM actor</t>
+  </si>
+  <si>
+    <t>WHERE name = 'Glenn Close';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT id FROM movie</t>
+  </si>
+  <si>
+    <t>WHERE title = 'Casablanca';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT name FROM actor</t>
+  </si>
+  <si>
+    <t>JOIN casting ON id = actorid</t>
+  </si>
+  <si>
+    <t>WHERE movieid = '11768';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHERE movieid = '10522';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT title FROM movie A</t>
+  </si>
+  <si>
+    <t>JOIN (SELECT movieid FROM casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          JOIN actor ON actorid = id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         WHERE name = 'Harrison Ford') B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON A.id = B.movieid;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          JOIN actor ON actorid = id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         WHERE name = 'Harrison Ford'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         AND ord &lt;&gt; 1) B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON A.id = B.movieid;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2345,10 +2612,289 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B10"/>
+  <dimension ref="B1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2359,47 +2905,192 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/実績置き場/01_石井麻/SQL学習.xlsx
+++ b/実績置き場/01_石井麻/SQL学習.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
     <sheet name="7" sheetId="8" r:id="rId8"/>
+    <sheet name="8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="332">
   <si>
     <t>SELECT population FROM world</t>
   </si>
@@ -992,6 +993,236 @@
   <si>
     <t>ON A.id = B.movieid;</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT A.title, B.name</t>
+  </si>
+  <si>
+    <t>FROM movie A</t>
+  </si>
+  <si>
+    <t>JOIN (SELECT movieid, name FROM casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          JOIN actor ON actorid = id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         WHERE ord = '1') B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON A.id = B.movieid</t>
+  </si>
+  <si>
+    <t>WHERE A.yr = '1962';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT yr,COUNT(title) FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  movie JOIN casting ON movie.id=movieid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         JOIN actor   ON actorid=actor.id</t>
+  </si>
+  <si>
+    <t>where name='John Travolta'</t>
+  </si>
+  <si>
+    <t>GROUP BY yr</t>
+  </si>
+  <si>
+    <t>HAVING COUNT(title)=(SELECT MAX(c) FROM</t>
+  </si>
+  <si>
+    <t>(SELECT yr,COUNT(title) AS c FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   movie JOIN casting ON movie.id=movieid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> where name='John Travolta'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GROUP BY yr) AS t</t>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT title, name</t>
+  </si>
+  <si>
+    <t>FROM movie JOIN casting ON (movieid = movie.id</t>
+  </si>
+  <si>
+    <t>WHERE movie.id IN (SELECT movieid FROM casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                     AND ord = '1')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                       JOIN actor ON (actorid = actor.id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   WHERE actorid IN (SELECT id FROM actor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                    WHERE name = 'Julie Andrews'));</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT A.name FROM actor A</t>
+  </si>
+  <si>
+    <t>JOIN (SELECT actorid, COUNT(movieid) as honsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      FROM casting</t>
+  </si>
+  <si>
+    <t>ON A.id = B.actorid</t>
+  </si>
+  <si>
+    <t>WHERE B.honsu &gt;= 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          FROM casting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          WHERE ord = '1'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          GROUP BY actorid) B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORDER BY name;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT A.title, B.ninzu FROM movie A</t>
+  </si>
+  <si>
+    <t>JOIN (SELECT movieid, COUNT(actorid) as ninzu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      GROUP BY movieid) B</t>
+  </si>
+  <si>
+    <t>WHERE A.yr = '1978'</t>
+  </si>
+  <si>
+    <t>ORDER BY B.ninzu DESC;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT E.name FROM actor E</t>
+  </si>
+  <si>
+    <t>JOIN (SELECT C.actorid FROM casting C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      JOIN (SELECT A.movieid FROM casting A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            JOIN (SELECT id FROM actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            WHERE name = 'Art Garfunkel') B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ON A.actorid = B.id) D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ON C.movieid = D.movieid) F</t>
+  </si>
+  <si>
+    <t>ON E.id = F.actorid</t>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT name FROM teacher</t>
+  </si>
+  <si>
+    <t>WHERE dept IS NULL;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT teacher.name, dept.name</t>
+  </si>
+  <si>
+    <t>FROM teacher INNER JOIN dept</t>
+  </si>
+  <si>
+    <t>ON (teacher.dept = dept.id);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT A.name, B.name FROM teacher A</t>
+  </si>
+  <si>
+    <t>LEFT JOIN dept B</t>
+  </si>
+  <si>
+    <t>ON A.dept = B.id;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT B.name, A.name FROM dept A</t>
+  </si>
+  <si>
+    <t>LEFT JOIN teacher B</t>
+  </si>
+  <si>
+    <t>ON A.id = B.dept</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,6 +1295,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2891,10 +3125,494 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B46"/>
+  <dimension ref="B1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B76" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B77" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B78" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B80" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B84" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B85" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B86" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B88" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B90" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B91" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B92" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B93" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B94" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B95" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B96" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B97" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B99" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B100" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B101" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B102" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B103" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B104" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B105" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B106" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B107" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2905,192 +3623,77 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>241</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B46" s="1" t="s">
-        <v>263</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
